--- a/src/main/resources/ExportTemplate/KeHoachVanTaiThongQuan.xlsx
+++ b/src/main/resources/ExportTemplate/KeHoachVanTaiThongQuan.xlsx
@@ -148,9 +148,6 @@
     <t>${detail.eta}</t>
   </si>
   <si>
-    <t>${detail.feeTime}</t>
-  </si>
-  <si>
     <t>${detail.cusDate}</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>${detail.nhathau}</t>
+  </si>
+  <si>
+    <t>${detail.freeTime}</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -353,9 +353,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,113 +363,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,12 +761,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
@@ -777,25 +777,25 @@
     <col min="10" max="11" width="5" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="30" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="31" customWidth="1"/>
-    <col min="16" max="17" width="13" style="31" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="25" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="26" customWidth="1"/>
+    <col min="16" max="17" width="13" style="26" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="26" customWidth="1"/>
     <col min="19" max="19" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" customWidth="1"/>
     <col min="21" max="36" width="14" style="1"/>
-    <col min="37" max="16384" width="14" style="4"/>
+    <col min="37" max="16384" width="14" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -810,16 +810,16 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="27"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -842,10 +842,10 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -853,12 +853,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -867,234 +867,240 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:36" s="13" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:36" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="42" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="44"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="34" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
     </row>
-    <row r="5" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="14" t="s">
+    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>20</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>40</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
     </row>
-    <row r="6" spans="1:36" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
+    <row r="6" spans="1:36" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
     </row>
-    <row r="7" spans="1:36" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:36" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="R7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="D4:D5"/>
@@ -1105,12 +1111,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:L4"/>

--- a/src/main/resources/ExportTemplate/KeHoachVanTaiThongQuan.xlsx
+++ b/src/main/resources/ExportTemplate/KeHoachVanTaiThongQuan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -170,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,54 +174,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -345,55 +326,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,13 +428,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,65 +443,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,346 +733,340 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="26" customWidth="1"/>
-    <col min="16" max="17" width="13" style="26" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="26" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="36" width="14" style="1"/>
-    <col min="37" max="16384" width="14" style="3"/>
+    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="41" customWidth="1"/>
+    <col min="16" max="17" width="13" style="41" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="36" width="14" style="2"/>
+    <col min="37" max="16384" width="14" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:36" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:36" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="31" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
     </row>
-    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="10" t="s">
+    <row r="5" spans="1:36" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="23">
         <v>20</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="23">
         <v>40</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
     </row>
-    <row r="6" spans="1:36" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
+    <row r="6" spans="1:36" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
     </row>
-    <row r="7" spans="1:36" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:36" s="38" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="D4:D5"/>
@@ -1115,7 +1081,14 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>